--- a/topic02/book-b/archives/lab04_solution.xlsx
+++ b/topic02/book-b/archives/lab04_solution.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Analytics\analytics-2017\topic02\book-b\archives\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MBA Survey" sheetId="8" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="Facebook" sheetId="2" r:id="rId6"/>
     <sheet name="Facebook_histogram" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="71">
   <si>
     <t>Bin</t>
   </si>
@@ -53,9 +58,6 @@
   </si>
   <si>
     <t>Friends</t>
-  </si>
-  <si>
-    <t>bin range upper limit</t>
   </si>
   <si>
     <t>female</t>
@@ -241,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -457,14 +459,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -491,7 +496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -573,6 +577,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29E7-48B3-8AB8-FC745198A2F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -629,6 +638,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29E7-48B3-8AB8-FC745198A2F4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -666,9 +680,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -702,7 +716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -748,7 +761,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -764,9 +776,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -793,7 +805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -858,6 +869,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C21A-44B1-AD1C-7411738BA00C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -916,6 +932,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C21A-44B1-AD1C-7411738BA00C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -953,7 +974,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -990,7 +1010,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1047,9 +1066,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1085,7 +1104,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1163,6 +1181,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31CE-4C33-A91F-89FE853EB5C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1199,7 +1222,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1236,7 +1258,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1261,9 +1282,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1290,7 +1311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1390,6 +1410,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6AF-4992-8347-517295409C03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1426,9 +1451,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1462,7 +1487,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1487,9 +1511,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1521,7 +1545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1606,6 +1629,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3659-4119-86F9-EACDEBFCA4D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1647,7 +1675,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1707,7 +1734,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1744,7 +1777,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1781,7 +1820,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1818,7 +1863,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1850,7 +1901,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1913,7 +1970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1946,9 +2003,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1981,6 +2055,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2163,66 +2254,66 @@
       <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="1" width="14.85546875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="37" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="D3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>69</v>
-      </c>
       <c r="I3" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="41">
         <v>28</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="41">
         <v>2</v>
@@ -2231,7 +2322,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="38">
         <f>COUNTIF(B4:B38,"Yes")</f>
@@ -2242,18 +2333,18 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="41">
         <v>37</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="41">
         <v>5</v>
@@ -2262,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="38">
         <f>COUNTIF(B4:B38,"No")</f>
@@ -2273,18 +2364,18 @@
         <v>0.62857142857142856</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="41">
         <v>23</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="41">
         <v>2</v>
@@ -2302,18 +2393,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="41">
         <v>22</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="41">
         <v>3</v>
@@ -2323,18 +2414,18 @@
       </c>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="41">
         <v>32</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="41">
         <v>1</v>
@@ -2349,21 +2440,21 @@
         <v>1</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="41">
         <v>24</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="41">
         <v>2</v>
@@ -2372,7 +2463,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="38">
         <f>COUNTIF(A4:A38,"Male")</f>
@@ -2383,18 +2474,18 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="41">
         <v>32</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="41">
         <v>2</v>
@@ -2403,7 +2494,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="38">
         <f>COUNTIF(A4:A38,"Female")</f>
@@ -2414,18 +2505,18 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="41">
         <v>22</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="41">
         <v>1</v>
@@ -2443,18 +2534,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="41">
         <v>23</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="41">
         <v>2</v>
@@ -2464,18 +2555,18 @@
       </c>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="41">
         <v>22</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="41">
         <v>3</v>
@@ -2484,27 +2575,27 @@
         <v>12</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>1</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="41">
         <v>32</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="41">
         <v>1</v>
@@ -2513,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="38">
         <f>COUNTIF(D4:D38,"Liberal Arts")</f>
@@ -2524,18 +2615,18 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="41">
         <v>24</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="41">
         <v>2</v>
@@ -2544,7 +2635,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="38">
         <f>COUNTIF(D4:D38,"Sciences")</f>
@@ -2555,18 +2646,18 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="41">
         <v>22</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="41">
         <v>2</v>
@@ -2575,7 +2666,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="38">
         <f>COUNTIF(D4:D38,"Engineering")</f>
@@ -2586,18 +2677,18 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="41">
         <v>24</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="41">
         <v>1.5</v>
@@ -2606,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="38">
         <f>COUNTIF(D4:D38,"Other")</f>
@@ -2617,18 +2708,18 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="41">
         <v>26</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="41">
         <v>0.5</v>
@@ -2637,7 +2728,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="38">
         <f>COUNTIF(D4:D38,"Business")</f>
@@ -2648,18 +2739,18 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="41">
         <v>26</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="41">
         <v>1</v>
@@ -2677,18 +2768,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="41">
         <v>31</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="41">
         <v>1</v>
@@ -2698,18 +2789,18 @@
       </c>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="41">
         <v>23</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="41">
         <v>2</v>
@@ -2719,18 +2810,18 @@
       </c>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="41">
         <v>25</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="41">
         <v>1</v>
@@ -2740,18 +2831,18 @@
       </c>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="41">
         <v>26</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="41">
         <v>0</v>
@@ -2761,18 +2852,18 @@
       </c>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="41">
         <v>24</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="41">
         <v>2</v>
@@ -2782,18 +2873,18 @@
       </c>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="41">
         <v>24</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="41">
         <v>3</v>
@@ -2803,18 +2894,18 @@
       </c>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="41">
         <v>28</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="41">
         <v>2</v>
@@ -2824,18 +2915,18 @@
       </c>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="41">
         <v>28</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="41">
         <v>1</v>
@@ -2845,18 +2936,18 @@
       </c>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="41">
         <v>26</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="41">
         <v>7</v>
@@ -2866,18 +2957,18 @@
       </c>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="41">
         <v>37</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="41">
         <v>0</v>
@@ -2887,18 +2978,18 @@
       </c>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="41">
         <v>23</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="41">
         <v>1</v>
@@ -2908,18 +2999,18 @@
       </c>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="41">
         <v>24</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="41">
         <v>3</v>
@@ -2929,18 +3020,18 @@
       </c>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="41">
         <v>25</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="41">
         <v>1</v>
@@ -2950,18 +3041,18 @@
       </c>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="41">
         <v>40</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="41">
         <v>1</v>
@@ -2971,18 +3062,18 @@
       </c>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="41">
         <v>22</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="41">
         <v>4</v>
@@ -2992,18 +3083,18 @@
       </c>
       <c r="G34" s="41"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="41">
         <v>23</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="41">
         <v>1</v>
@@ -3013,18 +3104,18 @@
       </c>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="41">
         <v>27</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="41">
         <v>2</v>
@@ -3034,18 +3125,18 @@
       </c>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="41">
         <v>26</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="41">
         <v>3</v>
@@ -3055,18 +3146,18 @@
       </c>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="41">
         <v>28</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="41">
         <v>1</v>
@@ -3089,54 +3180,54 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="13.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="28"/>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="I3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
         <v>239493.68181818182</v>
       </c>
@@ -3162,7 +3253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
         <v>177249.17857142858</v>
       </c>
@@ -3188,7 +3279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
         <v>218619.18181818182</v>
       </c>
@@ -3214,7 +3305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
         <v>186380.08333333334</v>
       </c>
@@ -3240,7 +3331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
         <v>209511.75</v>
       </c>
@@ -3266,7 +3357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
         <v>181987.28571428571</v>
       </c>
@@ -3292,7 +3383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
         <v>162536.13043478262</v>
       </c>
@@ -3318,7 +3409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
         <v>174534.95238095237</v>
       </c>
@@ -3341,7 +3432,7 @@
         <v>31.517999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
         <v>135353.70370370371</v>
       </c>
@@ -3364,7 +3455,7 @@
         <v>32.345999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>212540.82352941178</v>
       </c>
@@ -3387,7 +3478,7 @@
         <v>31.553999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
         <v>297079.5</v>
       </c>
@@ -3410,7 +3501,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
         <v>168904.45</v>
       </c>
@@ -3433,7 +3524,7 @@
         <v>31.788</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="32">
         <v>135791.58333333334</v>
       </c>
@@ -3456,7 +3547,7 @@
         <v>31.733999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="32">
         <v>133695.52173913043</v>
       </c>
@@ -3479,7 +3570,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>112192.03846153847</v>
       </c>
@@ -3502,7 +3593,7 @@
         <v>31.302000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
         <v>215121.66666666666</v>
       </c>
@@ -3525,7 +3616,7 @@
         <v>32.292000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="32">
         <v>183922.92857142858</v>
       </c>
@@ -3548,7 +3639,7 @@
         <v>31.985999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="32">
         <v>150251.76470588235</v>
       </c>
@@ -3571,7 +3662,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="32">
         <v>183356.69230769231</v>
       </c>
@@ -3594,7 +3685,7 @@
         <v>32.058</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="32">
         <v>130274.35294117648</v>
       </c>
@@ -3617,7 +3708,7 @@
         <v>32.472000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <v>286285.40000000002</v>
       </c>
@@ -3640,7 +3731,7 @@
         <v>32.094000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="32">
         <v>72708.052631578947</v>
       </c>
@@ -3663,7 +3754,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="32">
         <v>99597.307692307688</v>
       </c>
@@ -3686,7 +3777,7 @@
         <v>31.517999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="32">
         <v>85557.555555555562</v>
       </c>
@@ -3709,7 +3800,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>46406.25</v>
       </c>
@@ -3732,9 +3823,9 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3750,15 +3841,15 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="21"/>
+    <col min="1" max="2" width="9.140625" style="21"/>
     <col min="3" max="3" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="21"/>
+    <col min="4" max="4" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3766,13 +3857,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>45</v>
       </c>
@@ -3788,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>50</v>
       </c>
@@ -3804,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>55</v>
       </c>
@@ -3820,7 +3911,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>60</v>
       </c>
@@ -3836,7 +3927,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>65</v>
       </c>
@@ -3852,7 +3943,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>70</v>
       </c>
@@ -3868,7 +3959,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>75</v>
       </c>
@@ -3884,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>4</v>
       </c>
@@ -3894,7 +3985,7 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <f>SUM(B2:B8)</f>
         <v>25</v>
@@ -3915,62 +4006,62 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="18"/>
+    <col min="7" max="7" width="15.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="17" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="18">
         <v>3</v>
@@ -3985,18 +4076,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="18">
         <v>5</v>
@@ -4011,18 +4102,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="18">
         <v>5</v>
@@ -4037,18 +4128,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="18">
         <v>5</v>
@@ -4063,18 +4154,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="18">
         <v>3</v>
@@ -4089,18 +4180,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="18">
         <v>2</v>
@@ -4112,18 +4203,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="18">
         <v>4</v>
@@ -4135,18 +4226,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="18">
         <v>2</v>
@@ -4158,18 +4249,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="18">
         <v>2</v>
@@ -4181,18 +4272,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="18">
         <v>3</v>
@@ -4204,18 +4295,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="18">
         <v>5</v>
@@ -4227,18 +4318,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="18">
         <v>5</v>
@@ -4250,18 +4341,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="18">
         <v>4</v>
@@ -4273,18 +4364,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="18">
         <v>4</v>
@@ -4296,18 +4387,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="18">
         <v>2</v>
@@ -4319,41 +4410,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18">
+        <v>3</v>
+      </c>
+      <c r="G19" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="18">
-        <v>3</v>
-      </c>
-      <c r="F19" s="18">
-        <v>3</v>
-      </c>
-      <c r="G19" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E20" s="18">
         <v>2</v>
@@ -4365,18 +4456,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="18">
         <v>4</v>
@@ -4388,18 +4479,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C22" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="18">
         <v>3</v>
@@ -4411,18 +4502,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="18">
         <v>3</v>
@@ -4434,18 +4525,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="18">
         <v>3</v>
@@ -4457,18 +4548,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="18">
         <v>4</v>
@@ -4480,18 +4571,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="18">
         <v>3</v>
@@ -4503,18 +4594,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C27" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="18">
         <v>3</v>
@@ -4526,18 +4617,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="18">
         <v>4</v>
@@ -4549,18 +4640,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="E29" s="18">
         <v>4</v>
@@ -4572,18 +4663,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E30" s="18">
         <v>3</v>
@@ -4595,18 +4686,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="18">
         <v>4</v>
@@ -4618,18 +4709,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
@@ -4641,18 +4732,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="18">
         <v>4</v>
@@ -4664,18 +4755,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="18">
         <v>1</v>
@@ -4687,18 +4778,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E35" s="18">
         <v>2</v>
@@ -4710,41 +4801,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="18">
+        <v>3</v>
+      </c>
+      <c r="F36" s="18">
+        <v>3</v>
+      </c>
+      <c r="G36" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="18">
-        <v>3</v>
-      </c>
-      <c r="F36" s="18">
-        <v>3</v>
-      </c>
-      <c r="G36" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D37" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="18">
         <v>2</v>
@@ -4756,18 +4847,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="18">
         <v>4</v>
@@ -4779,18 +4870,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="18">
         <v>3</v>
@@ -4802,18 +4893,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="18">
         <v>3</v>
@@ -4825,18 +4916,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="18">
         <v>2</v>
@@ -4848,18 +4939,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="18">
         <v>3</v>
@@ -4871,18 +4962,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="18">
         <v>3</v>
@@ -4894,18 +4985,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="E44" s="18">
         <v>3</v>
@@ -4917,18 +5008,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E45" s="18">
         <v>3</v>
@@ -4940,18 +5031,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="18">
         <v>3</v>
@@ -4963,18 +5054,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="18">
         <v>3</v>
@@ -4986,18 +5077,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="18">
         <v>4</v>
@@ -5009,18 +5100,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="18">
         <v>4</v>
@@ -5032,18 +5123,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="18">
         <v>4</v>
@@ -5055,18 +5146,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51" s="18">
         <v>5</v>
@@ -5078,18 +5169,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="E52" s="18">
         <v>4</v>
@@ -5101,18 +5192,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="18">
         <v>3</v>
@@ -5124,18 +5215,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E54" s="18">
         <v>4</v>
@@ -5147,18 +5238,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="18">
         <v>4</v>
@@ -5183,15 +5274,15 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="21"/>
-    <col min="3" max="3" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="21"/>
+    <col min="1" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5205,7 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -5221,7 +5312,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -5237,7 +5328,7 @@
         <v>0.19230769230769232</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -5253,7 +5344,7 @@
         <v>0.57692307692307698</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -5269,7 +5360,7 @@
         <v>0.88461538461538469</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -5285,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <f>SUM(B2:B6)</f>
         <v>52</v>
@@ -5301,27 +5392,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -5337,22 +5428,20 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="9">
         <v>4</v>
@@ -5360,29 +5449,24 @@
       <c r="E4" s="9">
         <v>150</v>
       </c>
-      <c r="F4" s="11">
-        <v>50</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="array" ref="G4:G14">FREQUENCY(D4:D36,F4:F13)</f>
-        <v>33</v>
-      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="9">
         <v>10</v>
@@ -5390,12 +5474,8 @@
       <c r="E5" s="9">
         <v>400</v>
       </c>
-      <c r="F5" s="12">
-        <v>100</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="15">
         <v>1</v>
       </c>
@@ -5404,15 +5484,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="9">
         <v>7</v>
@@ -5420,12 +5500,8 @@
       <c r="E6" s="9">
         <v>120</v>
       </c>
-      <c r="F6" s="12">
-        <v>150</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="15">
         <v>2</v>
       </c>
@@ -5434,15 +5510,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9">
         <v>15</v>
@@ -5450,12 +5526,8 @@
       <c r="E7" s="9">
         <v>500</v>
       </c>
-      <c r="F7" s="12">
-        <v>200</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="15">
         <v>3</v>
       </c>
@@ -5464,15 +5536,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="9">
         <v>9</v>
@@ -5480,12 +5552,8 @@
       <c r="E8" s="9">
         <v>260</v>
       </c>
-      <c r="F8" s="12">
-        <v>250</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="15">
         <v>4</v>
       </c>
@@ -5494,15 +5562,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9">
         <v>5</v>
@@ -5510,12 +5578,8 @@
       <c r="E9" s="9">
         <v>70</v>
       </c>
-      <c r="F9" s="12">
-        <v>300</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="15">
         <v>5</v>
       </c>
@@ -5524,15 +5588,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9">
         <v>7</v>
@@ -5540,12 +5604,8 @@
       <c r="E10" s="9">
         <v>90</v>
       </c>
-      <c r="F10" s="12">
-        <v>350</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="15">
         <v>6</v>
       </c>
@@ -5554,15 +5614,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="9">
         <v>5</v>
@@ -5570,12 +5630,8 @@
       <c r="E11" s="9">
         <v>250</v>
       </c>
-      <c r="F11" s="12">
-        <v>400</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="15">
         <v>7</v>
       </c>
@@ -5584,15 +5640,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="9">
         <v>12</v>
@@ -5600,12 +5656,8 @@
       <c r="E12" s="9">
         <v>110</v>
       </c>
-      <c r="F12" s="12">
-        <v>450</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="15">
         <v>8</v>
       </c>
@@ -5614,15 +5666,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="9">
         <v>2</v>
@@ -5630,12 +5682,8 @@
       <c r="E13" s="9">
         <v>30</v>
       </c>
-      <c r="F13" s="12">
-        <v>500</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="15">
         <v>9</v>
       </c>
@@ -5644,24 +5692,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="9">
         <v>6</v>
       </c>
       <c r="E14" s="9">
         <v>80</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
       </c>
       <c r="H14" s="15">
         <v>10</v>
@@ -5671,15 +5716,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9">
         <v>2</v>
@@ -5695,25 +5740,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="D16" s="9">
         <v>3</v>
       </c>
       <c r="E16" s="9">
         <v>200</v>
-      </c>
-      <c r="F16" s="7">
-        <f>_xlfn.QUARTILE.INC(E4:E36,1)</f>
-        <v>80</v>
       </c>
       <c r="H16" s="15">
         <v>12</v>
@@ -5723,25 +5764,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D17" s="9">
         <v>6</v>
       </c>
       <c r="E17" s="9">
         <v>240</v>
-      </c>
-      <c r="F17" s="7">
-        <f>_xlfn.QUARTILE.INC(E4:E36,2)</f>
-        <v>120</v>
       </c>
       <c r="H17" s="15">
         <v>13</v>
@@ -5751,25 +5788,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9">
         <v>6</v>
       </c>
       <c r="E18" s="9">
         <v>150</v>
-      </c>
-      <c r="F18" s="7">
-        <f>_xlfn.QUARTILE.INC(E4:E36,3)</f>
-        <v>250</v>
       </c>
       <c r="H18" s="15">
         <v>14</v>
@@ -5779,15 +5812,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="D19" s="9">
         <v>4</v>
@@ -5803,15 +5836,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D20" s="9">
         <v>8</v>
@@ -5820,15 +5853,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="9">
         <v>10</v>
@@ -5837,15 +5870,15 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9">
         <v>4</v>
@@ -5854,15 +5887,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="9">
         <v>4</v>
@@ -5871,15 +5904,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="9">
         <v>6</v>
@@ -5888,15 +5921,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="9">
         <v>4</v>
@@ -5905,15 +5938,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D26" s="9">
         <v>5</v>
@@ -5922,15 +5955,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D27" s="9">
         <v>9</v>
@@ -5939,15 +5972,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="9">
         <v>12</v>
@@ -5956,15 +5989,15 @@
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="9">
         <v>8</v>
@@ -5973,15 +6006,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D30" s="9">
         <v>2</v>
@@ -5990,15 +6023,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>13</v>
       </c>
       <c r="D31" s="9">
         <v>7</v>
@@ -6007,15 +6040,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="9">
         <v>6</v>
@@ -6024,15 +6057,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" s="9">
         <v>4</v>
@@ -6041,15 +6074,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="9">
         <v>2</v>
@@ -6058,15 +6091,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" s="9">
         <v>5</v>
@@ -6075,15 +6108,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="9">
         <v>7</v>
@@ -6107,13 +6140,13 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6127,7 +6160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>50</v>
       </c>
@@ -6143,7 +6176,7 @@
         <v>0.15151515151515152</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>100</v>
       </c>
@@ -6159,7 +6192,7 @@
         <v>0.4242424242424242</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>150</v>
       </c>
@@ -6175,7 +6208,7 @@
         <v>0.57575757575757569</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>200</v>
       </c>
@@ -6191,7 +6224,7 @@
         <v>0.69696969696969691</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>250</v>
       </c>
@@ -6207,7 +6240,7 @@
         <v>0.75757575757575757</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>300</v>
       </c>
@@ -6223,7 +6256,7 @@
         <v>0.81818181818181812</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>350</v>
       </c>
@@ -6239,7 +6272,7 @@
         <v>0.8484848484848484</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>400</v>
       </c>
@@ -6255,7 +6288,7 @@
         <v>0.90909090909090895</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>450</v>
       </c>
@@ -6271,7 +6304,7 @@
         <v>0.9696969696969695</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>500</v>
       </c>
@@ -6287,7 +6320,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6336,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>SUM(B2:B12)</f>
         <v>33</v>
